--- a/xlsx/加州 (消歧义)_intext.xlsx
+++ b/xlsx/加州 (消歧义)_intext.xlsx
@@ -35,13 +35,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E8%B3%80%E5%9C%8B</t>
   </si>
   <si>
-    <t>加賀國</t>
+    <t>加贺国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A4%E5%88%B6%E5%9C%8B</t>
   </si>
   <si>
-    <t>令制國</t>
+    <t>令制国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%81%A5%E8%BA%AB</t>
